--- a/biology/Zoologie/Chrysididae/Chrysididae.xlsx
+++ b/biology/Zoologie/Chrysididae/Chrysididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chrysididae forment une famille d'insectes de l'ordre des hyménoptères. Ces insectes sont également appelés "guêpe-coucou" [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chrysididae forment une famille d'insectes de l'ordre des hyménoptères. Ces insectes sont également appelés "guêpe-coucou" .
 Il s'agit d'un très grand groupe cosmopolite (plus de 3000 espèces décrites) de guêpes parasitoïdes ou cleptoparasites, souvent brillamment ornementées et colorées avec des reflets métalliques (d'où leurs nombreux noms vernaculaires : guêpe-bijou, guêpe d'or, ou encore guêpe verte). Elles sont extrêmement répandues sur tous les continents (excepté l'Antarctique), et certaines espèces sont devenues envahissantes.
-De petite taille, environ 1 cm, elles se nourrissent de nectar et de pollen. Les femelles recherchent des nids d’abeilles solitaires ou d'autres guêpes, pour y pondre un œuf. La future larve dévorera les provisions qui y sont stockées pour l'hôte et l’hôte lui-même. Ces guêpes sont ainsi surnommées guêpes-coucou, en référence à l'oiseau, le Coucou gris, qui pond aussi ses œufs dans le nid d’autres espèces[2].
+De petite taille, environ 1 cm, elles se nourrissent de nectar et de pollen. Les femelles recherchent des nids d’abeilles solitaires ou d'autres guêpes, pour y pondre un œuf. La future larve dévorera les provisions qui y sont stockées pour l'hôte et l’hôte lui-même. Ces guêpes sont ainsi surnommées guêpes-coucou, en référence à l'oiseau, le Coucou gris, qui pond aussi ses œufs dans le nid d’autres espèces.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Phylogénie de la famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chrysididae
 Cleptinae
@@ -555,7 +569,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) James M. Carpenter, « What do we know about chrysidoid (Hymenoptera) relationships? », Zoologica Scripta, The Norwegian Academy of Science and Letters, vol. 28, nos 1-2,‎ 1999, p. 215-231 (DOI 10.1046/j.1463-6409.1999.00011.x, lire en ligne)
 ↑ « Chryside ou "Guêpe-coucou" », sur blogspot.com (consulté le 21 août 2020).
